--- a/zone_list_xx.xlsx
+++ b/zone_list_xx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyunwoo\github\1300_NE_45th\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E7D198-0CB9-4ACA-9A39-3397DD22B7F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC1C3ABF-9769-4904-8BB2-3CD34C23C9DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10950" yWindow="3540" windowWidth="16545" windowHeight="14355" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5115" yWindow="1290" windowWidth="19110" windowHeight="19200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="zone_list" sheetId="1" r:id="rId1"/>
@@ -2107,8 +2107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59:A60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/zone_list_xx.xlsx
+++ b/zone_list_xx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyunwoo\github\1300_NE_45th\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC1C3ABF-9769-4904-8BB2-3CD34C23C9DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5622A057-0A53-4EC9-BD54-ACC3B912EB0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="1290" windowWidth="19110" windowHeight="19200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39555" yWindow="1005" windowWidth="19110" windowHeight="19200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="zone_list" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="417">
   <si>
     <t>Zone Names</t>
   </si>
@@ -1235,9 +1235,6 @@
     <t>VRF-21-1</t>
   </si>
   <si>
-    <t>VRF-22</t>
-  </si>
-  <si>
     <t>VRF-02-1</t>
   </si>
   <si>
@@ -1281,6 +1278,12 @@
   </si>
   <si>
     <t>Exhaust fan</t>
+  </si>
+  <si>
+    <t>SplitHP-SKY</t>
+  </si>
+  <si>
+    <t>SplitHP-L01</t>
   </si>
 </sst>
 </file>
@@ -2108,7 +2111,7 @@
   <dimension ref="A1:I183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2140,10 +2143,10 @@
         <v>385</v>
       </c>
       <c r="F1" t="s">
+        <v>413</v>
+      </c>
+      <c r="G1" t="s">
         <v>414</v>
-      </c>
-      <c r="G1" t="s">
-        <v>415</v>
       </c>
       <c r="H1" t="s">
         <v>386</v>
@@ -2172,10 +2175,10 @@
         <v>125</v>
       </c>
       <c r="H2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2198,10 +2201,10 @@
         <v>125</v>
       </c>
       <c r="H3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -2224,10 +2227,10 @@
         <v>125</v>
       </c>
       <c r="H4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="I4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -2276,7 +2279,7 @@
         <v>1200</v>
       </c>
       <c r="H6" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="I6" t="s">
         <v>395</v>
@@ -2302,7 +2305,7 @@
         <v>40</v>
       </c>
       <c r="H7" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="I7" t="s">
         <v>397</v>
@@ -2328,7 +2331,7 @@
         <v>35</v>
       </c>
       <c r="H8" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="I8" t="s">
         <v>397</v>
@@ -2354,7 +2357,7 @@
         <v>145</v>
       </c>
       <c r="H9" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="I9" t="s">
         <v>397</v>
@@ -2380,7 +2383,7 @@
         <v>400</v>
       </c>
       <c r="H10" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="I10" t="s">
         <v>397</v>
@@ -2958,10 +2961,10 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>411</v>
+      </c>
+      <c r="B44" t="s">
         <v>412</v>
-      </c>
-      <c r="B44" t="s">
-        <v>413</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -3021,8 +3024,8 @@
       <c r="F46">
         <v>50</v>
       </c>
-      <c r="H46" s="1" t="s">
-        <v>392</v>
+      <c r="H46" t="s">
+        <v>416</v>
       </c>
       <c r="I46" t="s">
         <v>394</v>
@@ -3047,11 +3050,11 @@
       <c r="F47">
         <v>300</v>
       </c>
-      <c r="H47" s="1" t="s">
-        <v>392</v>
+      <c r="H47" t="s">
+        <v>416</v>
       </c>
       <c r="I47" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -3073,8 +3076,8 @@
       <c r="F48">
         <v>50</v>
       </c>
-      <c r="H48" s="1" t="s">
-        <v>392</v>
+      <c r="H48" t="s">
+        <v>416</v>
       </c>
       <c r="I48" t="s">
         <v>394</v>
@@ -3099,8 +3102,8 @@
       <c r="F49">
         <v>250</v>
       </c>
-      <c r="H49" s="1" t="s">
-        <v>392</v>
+      <c r="H49" t="s">
+        <v>416</v>
       </c>
       <c r="I49" t="s">
         <v>394</v>
@@ -3195,8 +3198,8 @@
       <c r="F55">
         <v>20</v>
       </c>
-      <c r="H55" s="1" t="s">
-        <v>392</v>
+      <c r="H55" t="s">
+        <v>416</v>
       </c>
       <c r="I55" t="s">
         <v>394</v>
@@ -3789,7 +3792,7 @@
         <v>75</v>
       </c>
       <c r="H95" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -3812,7 +3815,7 @@
         <v>30</v>
       </c>
       <c r="H96" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -3835,7 +3838,7 @@
         <v>30</v>
       </c>
       <c r="H97" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -3858,7 +3861,7 @@
         <v>30</v>
       </c>
       <c r="H98" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -3881,7 +3884,7 @@
         <v>30</v>
       </c>
       <c r="H99" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -3904,7 +3907,7 @@
         <v>30</v>
       </c>
       <c r="H100" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -3927,7 +3930,7 @@
         <v>30</v>
       </c>
       <c r="H101" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -3950,7 +3953,7 @@
         <v>30</v>
       </c>
       <c r="H102" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -3973,7 +3976,7 @@
         <v>55</v>
       </c>
       <c r="H103" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -3996,7 +3999,7 @@
         <v>30</v>
       </c>
       <c r="H104" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -4019,7 +4022,7 @@
         <v>55</v>
       </c>
       <c r="H105" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -4042,7 +4045,7 @@
         <v>30</v>
       </c>
       <c r="H106" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
@@ -4065,7 +4068,7 @@
         <v>30</v>
       </c>
       <c r="H107" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
@@ -4088,7 +4091,7 @@
         <v>30</v>
       </c>
       <c r="H108" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
@@ -4111,7 +4114,7 @@
         <v>30</v>
       </c>
       <c r="H109" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
@@ -4134,7 +4137,7 @@
         <v>30</v>
       </c>
       <c r="H110" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
@@ -4157,7 +4160,7 @@
         <v>30</v>
       </c>
       <c r="H111" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
@@ -4180,7 +4183,7 @@
         <v>30</v>
       </c>
       <c r="H112" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -4203,7 +4206,7 @@
         <v>75</v>
       </c>
       <c r="H113" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
@@ -4226,7 +4229,7 @@
         <v>75</v>
       </c>
       <c r="H114" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
@@ -4249,7 +4252,7 @@
         <v>30</v>
       </c>
       <c r="H115" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
@@ -4272,7 +4275,7 @@
         <v>30</v>
       </c>
       <c r="H116" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
@@ -4295,7 +4298,7 @@
         <v>30</v>
       </c>
       <c r="H117" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
@@ -4318,7 +4321,7 @@
         <v>30</v>
       </c>
       <c r="H118" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
@@ -4341,7 +4344,7 @@
         <v>30</v>
       </c>
       <c r="H119" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
@@ -4364,7 +4367,7 @@
         <v>55</v>
       </c>
       <c r="H120" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
@@ -4387,7 +4390,7 @@
         <v>30</v>
       </c>
       <c r="H121" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -4410,7 +4413,7 @@
         <v>55</v>
       </c>
       <c r="H122" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
@@ -4433,7 +4436,7 @@
         <v>30</v>
       </c>
       <c r="H123" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
@@ -4456,7 +4459,7 @@
         <v>30</v>
       </c>
       <c r="H124" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
@@ -4479,7 +4482,7 @@
         <v>30</v>
       </c>
       <c r="H125" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
@@ -4502,7 +4505,7 @@
         <v>30</v>
       </c>
       <c r="H126" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
@@ -4525,7 +4528,7 @@
         <v>30</v>
       </c>
       <c r="H127" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
@@ -4548,7 +4551,7 @@
         <v>30</v>
       </c>
       <c r="H128" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
@@ -4571,7 +4574,7 @@
         <v>30</v>
       </c>
       <c r="H129" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
@@ -4594,7 +4597,7 @@
         <v>75</v>
       </c>
       <c r="H130" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
@@ -4617,7 +4620,7 @@
         <v>75</v>
       </c>
       <c r="H131" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
@@ -4640,7 +4643,7 @@
         <v>30</v>
       </c>
       <c r="H132" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
@@ -4663,7 +4666,7 @@
         <v>30</v>
       </c>
       <c r="H133" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
@@ -4686,7 +4689,7 @@
         <v>30</v>
       </c>
       <c r="H134" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
@@ -4709,7 +4712,7 @@
         <v>30</v>
       </c>
       <c r="H135" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
@@ -4732,7 +4735,7 @@
         <v>30</v>
       </c>
       <c r="H136" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
@@ -4755,7 +4758,7 @@
         <v>55</v>
       </c>
       <c r="H137" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
@@ -4778,7 +4781,7 @@
         <v>30</v>
       </c>
       <c r="H138" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
@@ -4801,7 +4804,7 @@
         <v>55</v>
       </c>
       <c r="H139" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
@@ -4824,7 +4827,7 @@
         <v>30</v>
       </c>
       <c r="H140" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
@@ -4847,7 +4850,7 @@
         <v>30</v>
       </c>
       <c r="H141" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
@@ -4870,7 +4873,7 @@
         <v>30</v>
       </c>
       <c r="H142" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
@@ -4893,7 +4896,7 @@
         <v>30</v>
       </c>
       <c r="H143" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
@@ -4916,7 +4919,7 @@
         <v>30</v>
       </c>
       <c r="H144" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
@@ -4939,7 +4942,7 @@
         <v>30</v>
       </c>
       <c r="H145" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
@@ -4962,7 +4965,7 @@
         <v>30</v>
       </c>
       <c r="H146" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
@@ -4985,7 +4988,7 @@
         <v>75</v>
       </c>
       <c r="H147" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
@@ -5008,7 +5011,7 @@
         <v>75</v>
       </c>
       <c r="H148" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
@@ -5031,7 +5034,7 @@
         <v>30</v>
       </c>
       <c r="H149" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
@@ -5054,7 +5057,7 @@
         <v>30</v>
       </c>
       <c r="H150" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
@@ -5077,7 +5080,7 @@
         <v>30</v>
       </c>
       <c r="H151" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
@@ -5100,7 +5103,7 @@
         <v>30</v>
       </c>
       <c r="H152" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
@@ -5123,7 +5126,7 @@
         <v>30</v>
       </c>
       <c r="H153" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
@@ -5146,7 +5149,7 @@
         <v>55</v>
       </c>
       <c r="H154" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
@@ -5169,7 +5172,7 @@
         <v>30</v>
       </c>
       <c r="H155" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
@@ -5192,7 +5195,7 @@
         <v>55</v>
       </c>
       <c r="H156" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
@@ -5215,7 +5218,7 @@
         <v>30</v>
       </c>
       <c r="H157" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
@@ -5238,7 +5241,7 @@
         <v>30</v>
       </c>
       <c r="H158" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
@@ -5261,7 +5264,7 @@
         <v>30</v>
       </c>
       <c r="H159" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
@@ -5284,7 +5287,7 @@
         <v>30</v>
       </c>
       <c r="H160" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
@@ -5307,7 +5310,7 @@
         <v>30</v>
       </c>
       <c r="H161" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
@@ -5330,7 +5333,7 @@
         <v>30</v>
       </c>
       <c r="H162" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
@@ -5353,7 +5356,7 @@
         <v>30</v>
       </c>
       <c r="H163" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
@@ -5376,7 +5379,7 @@
         <v>75</v>
       </c>
       <c r="H164" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
@@ -5793,7 +5796,7 @@
         <v>0</v>
       </c>
       <c r="H182" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
@@ -5819,7 +5822,7 @@
         <v>0</v>
       </c>
       <c r="H183" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
   </sheetData>

--- a/zone_list_xx.xlsx
+++ b/zone_list_xx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyunwoo\github\1300_NE_45th\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5622A057-0A53-4EC9-BD54-ACC3B912EB0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA517ED-5A25-41BE-8179-B06E37CA5D77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39555" yWindow="1005" windowWidth="19110" windowHeight="19200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="zone_list" sheetId="1" r:id="rId1"/>
@@ -1211,9 +1211,6 @@
     <t>ERV</t>
   </si>
   <si>
-    <t>DHP</t>
-  </si>
-  <si>
     <t>RTU-1</t>
   </si>
   <si>
@@ -1284,6 +1281,9 @@
   </si>
   <si>
     <t>SplitHP-L01</t>
+  </si>
+  <si>
+    <t>Split-HP</t>
   </si>
 </sst>
 </file>
@@ -2108,10 +2108,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2143,10 +2144,10 @@
         <v>385</v>
       </c>
       <c r="F1" t="s">
+        <v>412</v>
+      </c>
+      <c r="G1" t="s">
         <v>413</v>
-      </c>
-      <c r="G1" t="s">
-        <v>414</v>
       </c>
       <c r="H1" t="s">
         <v>386</v>
@@ -2175,10 +2176,10 @@
         <v>125</v>
       </c>
       <c r="H2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2201,10 +2202,10 @@
         <v>125</v>
       </c>
       <c r="H3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -2227,10 +2228,10 @@
         <v>125</v>
       </c>
       <c r="H4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -2253,10 +2254,10 @@
         <v>125</v>
       </c>
       <c r="H5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -2279,10 +2280,10 @@
         <v>1200</v>
       </c>
       <c r="H6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="I6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -2305,10 +2306,10 @@
         <v>40</v>
       </c>
       <c r="H7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="I7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -2331,10 +2332,10 @@
         <v>35</v>
       </c>
       <c r="H8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="I8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -2357,10 +2358,10 @@
         <v>145</v>
       </c>
       <c r="H9" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="I9" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -2383,10 +2384,10 @@
         <v>400</v>
       </c>
       <c r="H10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="I10" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -2409,7 +2410,7 @@
         <v>95</v>
       </c>
       <c r="H11" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -2432,7 +2433,7 @@
         <v>125</v>
       </c>
       <c r="H12" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -2455,7 +2456,7 @@
         <v>125</v>
       </c>
       <c r="H13" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -2478,7 +2479,7 @@
         <v>125</v>
       </c>
       <c r="H14" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -2501,7 +2502,7 @@
         <v>125</v>
       </c>
       <c r="H15" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -2524,7 +2525,7 @@
         <v>125</v>
       </c>
       <c r="H16" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -2547,7 +2548,7 @@
         <v>30</v>
       </c>
       <c r="H17" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -2570,10 +2571,10 @@
         <v>20</v>
       </c>
       <c r="H18" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -2587,7 +2588,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -2601,7 +2602,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>54</v>
       </c>
@@ -2615,7 +2616,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>57</v>
       </c>
@@ -2629,7 +2630,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>59</v>
       </c>
@@ -2643,7 +2644,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>61</v>
       </c>
@@ -2657,7 +2658,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>63</v>
       </c>
@@ -2671,7 +2672,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>65</v>
       </c>
@@ -2685,7 +2686,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>67</v>
       </c>
@@ -2699,7 +2700,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>69</v>
       </c>
@@ -2713,7 +2714,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>71</v>
       </c>
@@ -2727,7 +2728,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>73</v>
       </c>
@@ -2741,7 +2742,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>75</v>
       </c>
@@ -2755,7 +2756,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>77</v>
       </c>
@@ -2769,7 +2770,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>79</v>
       </c>
@@ -2783,7 +2784,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>81</v>
       </c>
@@ -2797,7 +2798,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>83</v>
       </c>
@@ -2811,7 +2812,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>85</v>
       </c>
@@ -2825,7 +2826,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>87</v>
       </c>
@@ -2839,7 +2840,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>89</v>
       </c>
@@ -2853,7 +2854,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>91</v>
       </c>
@@ -2867,7 +2868,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>93</v>
       </c>
@@ -2904,7 +2905,7 @@
         <v>0</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>392</v>
+        <v>416</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -2930,7 +2931,7 @@
         <v>0</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>392</v>
+        <v>416</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -2956,15 +2957,15 @@
         <v>30</v>
       </c>
       <c r="H43" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>410</v>
+      </c>
+      <c r="B44" t="s">
         <v>411</v>
-      </c>
-      <c r="B44" t="s">
-        <v>412</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2979,7 +2980,7 @@
         <v>225</v>
       </c>
       <c r="H44" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -3002,7 +3003,7 @@
         <v>225</v>
       </c>
       <c r="H45" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -3025,10 +3026,10 @@
         <v>50</v>
       </c>
       <c r="H46" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I46" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -3051,10 +3052,10 @@
         <v>300</v>
       </c>
       <c r="H47" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I47" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -3077,10 +3078,10 @@
         <v>50</v>
       </c>
       <c r="H48" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I48" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -3103,13 +3104,13 @@
         <v>250</v>
       </c>
       <c r="H49" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I49" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>107</v>
       </c>
@@ -3123,7 +3124,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>110</v>
       </c>
@@ -3137,7 +3138,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>112</v>
       </c>
@@ -3151,7 +3152,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>114</v>
       </c>
@@ -3165,7 +3166,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>116</v>
       </c>
@@ -3199,13 +3200,13 @@
         <v>20</v>
       </c>
       <c r="H55" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I55" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>121</v>
       </c>
@@ -3222,7 +3223,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>124</v>
       </c>
@@ -3239,7 +3240,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>126</v>
       </c>
@@ -3296,7 +3297,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>134</v>
       </c>
@@ -3310,7 +3311,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>137</v>
       </c>
@@ -3324,7 +3325,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>139</v>
       </c>
@@ -3338,7 +3339,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>141</v>
       </c>
@@ -3352,7 +3353,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>143</v>
       </c>
@@ -3366,7 +3367,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>145</v>
       </c>
@@ -3380,7 +3381,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>147</v>
       </c>
@@ -3394,7 +3395,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>149</v>
       </c>
@@ -3408,7 +3409,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>151</v>
       </c>
@@ -3422,7 +3423,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>153</v>
       </c>
@@ -3436,7 +3437,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>155</v>
       </c>
@@ -3450,7 +3451,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>157</v>
       </c>
@@ -3464,7 +3465,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>159</v>
       </c>
@@ -3478,7 +3479,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>161</v>
       </c>
@@ -3492,7 +3493,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>163</v>
       </c>
@@ -3506,7 +3507,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>165</v>
       </c>
@@ -3520,7 +3521,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>167</v>
       </c>
@@ -3534,7 +3535,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>169</v>
       </c>
@@ -3548,7 +3549,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>171</v>
       </c>
@@ -3562,7 +3563,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>173</v>
       </c>
@@ -3576,7 +3577,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>175</v>
       </c>
@@ -3590,7 +3591,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>178</v>
       </c>
@@ -3604,7 +3605,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>180</v>
       </c>
@@ -3618,7 +3619,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>182</v>
       </c>
@@ -3632,7 +3633,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>184</v>
       </c>
@@ -3646,7 +3647,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>186</v>
       </c>
@@ -3660,7 +3661,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>188</v>
       </c>
@@ -3674,7 +3675,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>190</v>
       </c>
@@ -3688,7 +3689,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>192</v>
       </c>
@@ -3702,7 +3703,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>195</v>
       </c>
@@ -3716,7 +3717,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>197</v>
       </c>
@@ -3730,7 +3731,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>199</v>
       </c>
@@ -3744,7 +3745,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>201</v>
       </c>
@@ -3758,7 +3759,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>203</v>
       </c>
@@ -3772,7 +3773,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>205</v>
       </c>
@@ -3792,10 +3793,10 @@
         <v>75</v>
       </c>
       <c r="H95" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>208</v>
       </c>
@@ -3815,10 +3816,10 @@
         <v>30</v>
       </c>
       <c r="H96" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>210</v>
       </c>
@@ -3838,10 +3839,10 @@
         <v>30</v>
       </c>
       <c r="H97" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>212</v>
       </c>
@@ -3861,10 +3862,10 @@
         <v>30</v>
       </c>
       <c r="H98" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>214</v>
       </c>
@@ -3884,10 +3885,10 @@
         <v>30</v>
       </c>
       <c r="H99" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>216</v>
       </c>
@@ -3907,10 +3908,10 @@
         <v>30</v>
       </c>
       <c r="H100" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>218</v>
       </c>
@@ -3930,10 +3931,10 @@
         <v>30</v>
       </c>
       <c r="H101" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>220</v>
       </c>
@@ -3953,10 +3954,10 @@
         <v>30</v>
       </c>
       <c r="H102" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>222</v>
       </c>
@@ -3976,10 +3977,10 @@
         <v>55</v>
       </c>
       <c r="H103" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>224</v>
       </c>
@@ -3999,10 +4000,10 @@
         <v>30</v>
       </c>
       <c r="H104" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>226</v>
       </c>
@@ -4022,10 +4023,10 @@
         <v>55</v>
       </c>
       <c r="H105" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>228</v>
       </c>
@@ -4045,10 +4046,10 @@
         <v>30</v>
       </c>
       <c r="H106" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>230</v>
       </c>
@@ -4068,10 +4069,10 @@
         <v>30</v>
       </c>
       <c r="H107" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>232</v>
       </c>
@@ -4091,10 +4092,10 @@
         <v>30</v>
       </c>
       <c r="H108" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>234</v>
       </c>
@@ -4114,10 +4115,10 @@
         <v>30</v>
       </c>
       <c r="H109" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>236</v>
       </c>
@@ -4137,10 +4138,10 @@
         <v>30</v>
       </c>
       <c r="H110" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>238</v>
       </c>
@@ -4160,10 +4161,10 @@
         <v>30</v>
       </c>
       <c r="H111" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>240</v>
       </c>
@@ -4183,10 +4184,10 @@
         <v>30</v>
       </c>
       <c r="H112" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>242</v>
       </c>
@@ -4206,10 +4207,10 @@
         <v>75</v>
       </c>
       <c r="H113" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>244</v>
       </c>
@@ -4229,10 +4230,10 @@
         <v>75</v>
       </c>
       <c r="H114" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>246</v>
       </c>
@@ -4252,10 +4253,10 @@
         <v>30</v>
       </c>
       <c r="H115" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>248</v>
       </c>
@@ -4275,10 +4276,10 @@
         <v>30</v>
       </c>
       <c r="H116" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>250</v>
       </c>
@@ -4298,10 +4299,10 @@
         <v>30</v>
       </c>
       <c r="H117" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>252</v>
       </c>
@@ -4321,10 +4322,10 @@
         <v>30</v>
       </c>
       <c r="H118" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>254</v>
       </c>
@@ -4344,10 +4345,10 @@
         <v>30</v>
       </c>
       <c r="H119" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>256</v>
       </c>
@@ -4367,10 +4368,10 @@
         <v>55</v>
       </c>
       <c r="H120" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>258</v>
       </c>
@@ -4390,10 +4391,10 @@
         <v>30</v>
       </c>
       <c r="H121" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>260</v>
       </c>
@@ -4413,10 +4414,10 @@
         <v>55</v>
       </c>
       <c r="H122" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>262</v>
       </c>
@@ -4436,10 +4437,10 @@
         <v>30</v>
       </c>
       <c r="H123" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>264</v>
       </c>
@@ -4459,10 +4460,10 @@
         <v>30</v>
       </c>
       <c r="H124" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>266</v>
       </c>
@@ -4482,10 +4483,10 @@
         <v>30</v>
       </c>
       <c r="H125" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>268</v>
       </c>
@@ -4505,10 +4506,10 @@
         <v>30</v>
       </c>
       <c r="H126" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>270</v>
       </c>
@@ -4528,10 +4529,10 @@
         <v>30</v>
       </c>
       <c r="H127" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>272</v>
       </c>
@@ -4551,10 +4552,10 @@
         <v>30</v>
       </c>
       <c r="H128" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>274</v>
       </c>
@@ -4574,10 +4575,10 @@
         <v>30</v>
       </c>
       <c r="H129" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>276</v>
       </c>
@@ -4597,10 +4598,10 @@
         <v>75</v>
       </c>
       <c r="H130" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>278</v>
       </c>
@@ -4620,10 +4621,10 @@
         <v>75</v>
       </c>
       <c r="H131" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>280</v>
       </c>
@@ -4643,10 +4644,10 @@
         <v>30</v>
       </c>
       <c r="H132" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>282</v>
       </c>
@@ -4666,10 +4667,10 @@
         <v>30</v>
       </c>
       <c r="H133" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>284</v>
       </c>
@@ -4689,10 +4690,10 @@
         <v>30</v>
       </c>
       <c r="H134" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>286</v>
       </c>
@@ -4712,10 +4713,10 @@
         <v>30</v>
       </c>
       <c r="H135" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>288</v>
       </c>
@@ -4735,10 +4736,10 @@
         <v>30</v>
       </c>
       <c r="H136" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>290</v>
       </c>
@@ -4758,10 +4759,10 @@
         <v>55</v>
       </c>
       <c r="H137" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>292</v>
       </c>
@@ -4781,10 +4782,10 @@
         <v>30</v>
       </c>
       <c r="H138" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>294</v>
       </c>
@@ -4804,10 +4805,10 @@
         <v>55</v>
       </c>
       <c r="H139" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>296</v>
       </c>
@@ -4827,10 +4828,10 @@
         <v>30</v>
       </c>
       <c r="H140" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>298</v>
       </c>
@@ -4850,10 +4851,10 @@
         <v>30</v>
       </c>
       <c r="H141" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>300</v>
       </c>
@@ -4873,10 +4874,10 @@
         <v>30</v>
       </c>
       <c r="H142" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>302</v>
       </c>
@@ -4896,10 +4897,10 @@
         <v>30</v>
       </c>
       <c r="H143" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>304</v>
       </c>
@@ -4919,10 +4920,10 @@
         <v>30</v>
       </c>
       <c r="H144" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>306</v>
       </c>
@@ -4942,10 +4943,10 @@
         <v>30</v>
       </c>
       <c r="H145" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>308</v>
       </c>
@@ -4965,10 +4966,10 @@
         <v>30</v>
       </c>
       <c r="H146" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>310</v>
       </c>
@@ -4988,10 +4989,10 @@
         <v>75</v>
       </c>
       <c r="H147" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>312</v>
       </c>
@@ -5011,10 +5012,10 @@
         <v>75</v>
       </c>
       <c r="H148" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>314</v>
       </c>
@@ -5034,10 +5035,10 @@
         <v>30</v>
       </c>
       <c r="H149" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>316</v>
       </c>
@@ -5057,10 +5058,10 @@
         <v>30</v>
       </c>
       <c r="H150" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>318</v>
       </c>
@@ -5080,10 +5081,10 @@
         <v>30</v>
       </c>
       <c r="H151" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>320</v>
       </c>
@@ -5103,10 +5104,10 @@
         <v>30</v>
       </c>
       <c r="H152" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>322</v>
       </c>
@@ -5126,10 +5127,10 @@
         <v>30</v>
       </c>
       <c r="H153" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>324</v>
       </c>
@@ -5149,10 +5150,10 @@
         <v>55</v>
       </c>
       <c r="H154" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>326</v>
       </c>
@@ -5172,10 +5173,10 @@
         <v>30</v>
       </c>
       <c r="H155" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>328</v>
       </c>
@@ -5195,10 +5196,10 @@
         <v>55</v>
       </c>
       <c r="H156" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>330</v>
       </c>
@@ -5218,10 +5219,10 @@
         <v>30</v>
       </c>
       <c r="H157" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>332</v>
       </c>
@@ -5241,10 +5242,10 @@
         <v>30</v>
       </c>
       <c r="H158" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>334</v>
       </c>
@@ -5264,10 +5265,10 @@
         <v>30</v>
       </c>
       <c r="H159" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>336</v>
       </c>
@@ -5287,10 +5288,10 @@
         <v>30</v>
       </c>
       <c r="H160" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>338</v>
       </c>
@@ -5310,10 +5311,10 @@
         <v>30</v>
       </c>
       <c r="H161" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>340</v>
       </c>
@@ -5333,10 +5334,10 @@
         <v>30</v>
       </c>
       <c r="H162" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>342</v>
       </c>
@@ -5356,10 +5357,10 @@
         <v>30</v>
       </c>
       <c r="H163" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>344</v>
       </c>
@@ -5379,10 +5380,10 @@
         <v>75</v>
       </c>
       <c r="H164" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>346</v>
       </c>
@@ -5402,10 +5403,10 @@
         <v>75</v>
       </c>
       <c r="H165" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>348</v>
       </c>
@@ -5425,10 +5426,10 @@
         <v>30</v>
       </c>
       <c r="H166" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>350</v>
       </c>
@@ -5448,10 +5449,10 @@
         <v>30</v>
       </c>
       <c r="H167" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>352</v>
       </c>
@@ -5471,10 +5472,10 @@
         <v>30</v>
       </c>
       <c r="H168" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>354</v>
       </c>
@@ -5494,10 +5495,10 @@
         <v>30</v>
       </c>
       <c r="H169" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>356</v>
       </c>
@@ -5517,10 +5518,10 @@
         <v>30</v>
       </c>
       <c r="H170" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>358</v>
       </c>
@@ -5540,10 +5541,10 @@
         <v>55</v>
       </c>
       <c r="H171" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>360</v>
       </c>
@@ -5563,10 +5564,10 @@
         <v>30</v>
       </c>
       <c r="H172" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>362</v>
       </c>
@@ -5586,10 +5587,10 @@
         <v>55</v>
       </c>
       <c r="H173" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>364</v>
       </c>
@@ -5609,10 +5610,10 @@
         <v>30</v>
       </c>
       <c r="H174" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>366</v>
       </c>
@@ -5632,10 +5633,10 @@
         <v>30</v>
       </c>
       <c r="H175" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>368</v>
       </c>
@@ -5655,10 +5656,10 @@
         <v>30</v>
       </c>
       <c r="H176" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>370</v>
       </c>
@@ -5678,10 +5679,10 @@
         <v>30</v>
       </c>
       <c r="H177" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>372</v>
       </c>
@@ -5701,10 +5702,10 @@
         <v>30</v>
       </c>
       <c r="H178" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>374</v>
       </c>
@@ -5724,10 +5725,10 @@
         <v>30</v>
       </c>
       <c r="H179" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>376</v>
       </c>
@@ -5747,10 +5748,10 @@
         <v>30</v>
       </c>
       <c r="H180" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>378</v>
       </c>
@@ -5770,7 +5771,7 @@
         <v>75</v>
       </c>
       <c r="H181" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
@@ -5796,7 +5797,7 @@
         <v>0</v>
       </c>
       <c r="H182" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
@@ -5822,11 +5823,16 @@
         <v>0</v>
       </c>
       <c r="H183" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:I183" xr:uid="{BF9669FC-7E78-4001-A010-806875128FA3}">
+    <filterColumn colId="5">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A95:I181">
       <sortCondition ref="B1:B183"/>
     </sortState>

--- a/zone_list_xx.xlsx
+++ b/zone_list_xx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyunwoo\github\1300_NE_45th\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA517ED-5A25-41BE-8179-B06E37CA5D77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{076169A9-E6ED-4EB2-99D8-31668B9A40C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2108,11 +2108,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:I183"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2574,7 +2573,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -2588,7 +2587,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -2602,7 +2601,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>54</v>
       </c>
@@ -2616,7 +2615,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>57</v>
       </c>
@@ -2630,7 +2629,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>59</v>
       </c>
@@ -2644,7 +2643,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>61</v>
       </c>
@@ -2658,7 +2657,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>63</v>
       </c>
@@ -2672,7 +2671,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>65</v>
       </c>
@@ -2686,7 +2685,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>67</v>
       </c>
@@ -2700,7 +2699,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>69</v>
       </c>
@@ -2714,7 +2713,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>71</v>
       </c>
@@ -2728,7 +2727,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>73</v>
       </c>
@@ -2742,7 +2741,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>75</v>
       </c>
@@ -2756,7 +2755,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>77</v>
       </c>
@@ -2770,7 +2769,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>79</v>
       </c>
@@ -2784,7 +2783,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>81</v>
       </c>
@@ -2798,7 +2797,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>83</v>
       </c>
@@ -2812,7 +2811,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>85</v>
       </c>
@@ -2826,7 +2825,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>87</v>
       </c>
@@ -2840,7 +2839,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>89</v>
       </c>
@@ -2854,7 +2853,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>91</v>
       </c>
@@ -2868,7 +2867,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>93</v>
       </c>
@@ -2953,9 +2952,6 @@
       <c r="F43">
         <v>30</v>
       </c>
-      <c r="G43">
-        <v>30</v>
-      </c>
       <c r="H43" t="s">
         <v>392</v>
       </c>
@@ -3110,7 +3106,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>107</v>
       </c>
@@ -3124,7 +3120,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>110</v>
       </c>
@@ -3138,7 +3134,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>112</v>
       </c>
@@ -3152,7 +3148,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>114</v>
       </c>
@@ -3166,7 +3162,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>116</v>
       </c>
@@ -3206,7 +3202,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>121</v>
       </c>
@@ -3223,7 +3219,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>124</v>
       </c>
@@ -3240,7 +3236,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>126</v>
       </c>
@@ -3297,7 +3293,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>134</v>
       </c>
@@ -3311,7 +3307,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>137</v>
       </c>
@@ -3325,7 +3321,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>139</v>
       </c>
@@ -3339,7 +3335,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>141</v>
       </c>
@@ -3353,7 +3349,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>143</v>
       </c>
@@ -3367,7 +3363,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>145</v>
       </c>
@@ -3381,7 +3377,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>147</v>
       </c>
@@ -3395,7 +3391,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>149</v>
       </c>
@@ -3409,7 +3405,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>151</v>
       </c>
@@ -3423,7 +3419,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>153</v>
       </c>
@@ -3437,7 +3433,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>155</v>
       </c>
@@ -3451,7 +3447,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>157</v>
       </c>
@@ -3465,7 +3461,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>159</v>
       </c>
@@ -3479,7 +3475,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>161</v>
       </c>
@@ -3493,7 +3489,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>163</v>
       </c>
@@ -3507,7 +3503,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>165</v>
       </c>
@@ -3521,7 +3517,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>167</v>
       </c>
@@ -3535,7 +3531,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>169</v>
       </c>
@@ -3549,7 +3545,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>171</v>
       </c>
@@ -3563,7 +3559,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>173</v>
       </c>
@@ -3577,7 +3573,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>175</v>
       </c>
@@ -3591,7 +3587,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>178</v>
       </c>
@@ -3605,7 +3601,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>180</v>
       </c>
@@ -3619,7 +3615,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>182</v>
       </c>
@@ -3633,7 +3629,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>184</v>
       </c>
@@ -3647,7 +3643,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>186</v>
       </c>
@@ -3661,7 +3657,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>188</v>
       </c>
@@ -3675,7 +3671,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>190</v>
       </c>
@@ -3689,7 +3685,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>192</v>
       </c>
@@ -3703,7 +3699,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>195</v>
       </c>
@@ -3717,7 +3713,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>197</v>
       </c>
@@ -3731,7 +3727,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>199</v>
       </c>
@@ -3745,7 +3741,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>201</v>
       </c>
@@ -3759,7 +3755,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>203</v>
       </c>
@@ -3773,7 +3769,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>205</v>
       </c>
@@ -3796,7 +3792,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>208</v>
       </c>
@@ -3819,7 +3815,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>210</v>
       </c>
@@ -3842,7 +3838,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>212</v>
       </c>
@@ -3865,7 +3861,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>214</v>
       </c>
@@ -3888,7 +3884,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>216</v>
       </c>
@@ -3911,7 +3907,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>218</v>
       </c>
@@ -3934,7 +3930,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>220</v>
       </c>
@@ -3957,7 +3953,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>222</v>
       </c>
@@ -3980,7 +3976,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>224</v>
       </c>
@@ -4003,7 +3999,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>226</v>
       </c>
@@ -4026,7 +4022,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>228</v>
       </c>
@@ -4049,7 +4045,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>230</v>
       </c>
@@ -4072,7 +4068,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>232</v>
       </c>
@@ -4095,7 +4091,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>234</v>
       </c>
@@ -4118,7 +4114,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>236</v>
       </c>
@@ -4141,7 +4137,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>238</v>
       </c>
@@ -4164,7 +4160,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>240</v>
       </c>
@@ -4187,7 +4183,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>242</v>
       </c>
@@ -4210,7 +4206,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>244</v>
       </c>
@@ -4233,7 +4229,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>246</v>
       </c>
@@ -4256,7 +4252,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>248</v>
       </c>
@@ -4279,7 +4275,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>250</v>
       </c>
@@ -4302,7 +4298,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>252</v>
       </c>
@@ -4325,7 +4321,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>254</v>
       </c>
@@ -4348,7 +4344,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>256</v>
       </c>
@@ -4371,7 +4367,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>258</v>
       </c>
@@ -4394,7 +4390,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>260</v>
       </c>
@@ -4417,7 +4413,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>262</v>
       </c>
@@ -4440,7 +4436,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>264</v>
       </c>
@@ -4463,7 +4459,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>266</v>
       </c>
@@ -4486,7 +4482,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>268</v>
       </c>
@@ -4509,7 +4505,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>270</v>
       </c>
@@ -4532,7 +4528,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>272</v>
       </c>
@@ -4555,7 +4551,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>274</v>
       </c>
@@ -4578,7 +4574,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>276</v>
       </c>
@@ -4601,7 +4597,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>278</v>
       </c>
@@ -4624,7 +4620,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>280</v>
       </c>
@@ -4647,7 +4643,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>282</v>
       </c>
@@ -4670,7 +4666,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>284</v>
       </c>
@@ -4693,7 +4689,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>286</v>
       </c>
@@ -4716,7 +4712,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>288</v>
       </c>
@@ -4739,7 +4735,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>290</v>
       </c>
@@ -4762,7 +4758,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>292</v>
       </c>
@@ -4785,7 +4781,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>294</v>
       </c>
@@ -4808,7 +4804,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>296</v>
       </c>
@@ -4831,7 +4827,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>298</v>
       </c>
@@ -4854,7 +4850,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>300</v>
       </c>
@@ -4877,7 +4873,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>302</v>
       </c>
@@ -4900,7 +4896,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>304</v>
       </c>
@@ -4923,7 +4919,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>306</v>
       </c>
@@ -4946,7 +4942,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>308</v>
       </c>
@@ -4969,7 +4965,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>310</v>
       </c>
@@ -4992,7 +4988,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>312</v>
       </c>
@@ -5015,7 +5011,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>314</v>
       </c>
@@ -5038,7 +5034,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>316</v>
       </c>
@@ -5061,7 +5057,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>318</v>
       </c>
@@ -5084,7 +5080,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>320</v>
       </c>
@@ -5107,7 +5103,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>322</v>
       </c>
@@ -5130,7 +5126,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>324</v>
       </c>
@@ -5153,7 +5149,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>326</v>
       </c>
@@ -5176,7 +5172,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>328</v>
       </c>
@@ -5199,7 +5195,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>330</v>
       </c>
@@ -5222,7 +5218,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>332</v>
       </c>
@@ -5245,7 +5241,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>334</v>
       </c>
@@ -5268,7 +5264,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>336</v>
       </c>
@@ -5291,7 +5287,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>338</v>
       </c>
@@ -5314,7 +5310,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>340</v>
       </c>
@@ -5337,7 +5333,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>342</v>
       </c>
@@ -5360,7 +5356,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>344</v>
       </c>
@@ -5383,7 +5379,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>346</v>
       </c>
@@ -5406,7 +5402,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>348</v>
       </c>
@@ -5429,7 +5425,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>350</v>
       </c>
@@ -5452,7 +5448,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>352</v>
       </c>
@@ -5475,7 +5471,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>354</v>
       </c>
@@ -5498,7 +5494,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>356</v>
       </c>
@@ -5521,7 +5517,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>358</v>
       </c>
@@ -5544,7 +5540,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>360</v>
       </c>
@@ -5567,7 +5563,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>362</v>
       </c>
@@ -5590,7 +5586,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>364</v>
       </c>
@@ -5613,7 +5609,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>366</v>
       </c>
@@ -5636,7 +5632,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>368</v>
       </c>
@@ -5659,7 +5655,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>370</v>
       </c>
@@ -5682,7 +5678,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>372</v>
       </c>
@@ -5705,7 +5701,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>374</v>
       </c>
@@ -5728,7 +5724,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>376</v>
       </c>
@@ -5751,7 +5747,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>378</v>
       </c>
@@ -5828,11 +5824,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:I183" xr:uid="{BF9669FC-7E78-4001-A010-806875128FA3}">
-    <filterColumn colId="5">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A95:I181">
       <sortCondition ref="B1:B183"/>
     </sortState>

--- a/zone_list_xx.xlsx
+++ b/zone_list_xx.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyunwoo\github\1300_NE_45th\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{076169A9-E6ED-4EB2-99D8-31668B9A40C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{775BEC9B-FCF9-46F7-A47F-2A2274B160D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40815" yWindow="1695" windowWidth="19110" windowHeight="19200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="zone_list" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">zone_list!$A$1:$I$183</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">zone_list!$A$1:$J$183</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="419">
   <si>
     <t>Zone Names</t>
   </si>
@@ -1284,6 +1284,12 @@
   </si>
   <si>
     <t>Split-HP</t>
+  </si>
+  <si>
+    <t>Ventilation type</t>
+  </si>
+  <si>
+    <t>Intake</t>
   </si>
 </sst>
 </file>
@@ -2108,10 +2114,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I183"/>
+  <dimension ref="A1:N183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2121,12 +2127,12 @@
     <col min="3" max="3" width="13.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.75" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.75" customWidth="1"/>
+    <col min="6" max="8" width="13" customWidth="1"/>
+    <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2146,16 +2152,19 @@
         <v>412</v>
       </c>
       <c r="G1" t="s">
+        <v>417</v>
+      </c>
+      <c r="H1" t="s">
         <v>413</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>386</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2174,14 +2183,17 @@
       <c r="F2">
         <v>125</v>
       </c>
-      <c r="H2" t="s">
+      <c r="G2" t="s">
+        <v>418</v>
+      </c>
+      <c r="I2" t="s">
         <v>402</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2200,14 +2212,17 @@
       <c r="F3">
         <v>125</v>
       </c>
-      <c r="H3" t="s">
+      <c r="G3" t="s">
+        <v>418</v>
+      </c>
+      <c r="I3" t="s">
         <v>404</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -2226,14 +2241,17 @@
       <c r="F4">
         <v>125</v>
       </c>
-      <c r="H4" t="s">
+      <c r="G4" t="s">
+        <v>418</v>
+      </c>
+      <c r="I4" t="s">
         <v>406</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -2252,14 +2270,17 @@
       <c r="F5">
         <v>125</v>
       </c>
-      <c r="H5" t="s">
+      <c r="G5" t="s">
+        <v>418</v>
+      </c>
+      <c r="I5" t="s">
         <v>397</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -2278,14 +2299,17 @@
       <c r="F6">
         <v>1200</v>
       </c>
-      <c r="H6" t="s">
+      <c r="G6" t="s">
+        <v>418</v>
+      </c>
+      <c r="I6" t="s">
         <v>414</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -2304,14 +2328,17 @@
       <c r="F7">
         <v>40</v>
       </c>
-      <c r="H7" t="s">
+      <c r="G7" t="s">
+        <v>418</v>
+      </c>
+      <c r="I7" t="s">
         <v>414</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -2330,14 +2357,17 @@
       <c r="F8">
         <v>35</v>
       </c>
-      <c r="H8" t="s">
+      <c r="G8" t="s">
+        <v>418</v>
+      </c>
+      <c r="I8" t="s">
         <v>414</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -2356,14 +2386,17 @@
       <c r="F9">
         <v>145</v>
       </c>
-      <c r="H9" t="s">
+      <c r="G9" t="s">
+        <v>418</v>
+      </c>
+      <c r="I9" t="s">
         <v>414</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -2382,14 +2415,17 @@
       <c r="F10">
         <v>400</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G10" t="s">
+        <v>418</v>
+      </c>
+      <c r="I10" t="s">
         <v>414</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -2408,11 +2444,14 @@
       <c r="F11">
         <v>95</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G11" t="s">
+        <v>418</v>
+      </c>
+      <c r="I11" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -2431,11 +2470,18 @@
       <c r="F12">
         <v>125</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G12" t="s">
+        <v>418</v>
+      </c>
+      <c r="I12" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N12">
+        <f>SUM(F11:F45)</f>
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -2454,11 +2500,14 @@
       <c r="F13">
         <v>125</v>
       </c>
-      <c r="H13" t="s">
+      <c r="G13" t="s">
+        <v>418</v>
+      </c>
+      <c r="I13" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -2477,11 +2526,14 @@
       <c r="F14">
         <v>125</v>
       </c>
-      <c r="H14" t="s">
+      <c r="G14" t="s">
+        <v>418</v>
+      </c>
+      <c r="I14" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -2500,11 +2552,14 @@
       <c r="F15">
         <v>125</v>
       </c>
-      <c r="H15" t="s">
+      <c r="G15" t="s">
+        <v>418</v>
+      </c>
+      <c r="I15" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -2523,11 +2578,14 @@
       <c r="F16">
         <v>125</v>
       </c>
-      <c r="H16" t="s">
+      <c r="G16" t="s">
+        <v>418</v>
+      </c>
+      <c r="I16" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -2546,11 +2604,14 @@
       <c r="F17">
         <v>30</v>
       </c>
-      <c r="H17" t="s">
+      <c r="G17" t="s">
+        <v>418</v>
+      </c>
+      <c r="I17" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -2569,11 +2630,14 @@
       <c r="F18">
         <v>20</v>
       </c>
-      <c r="H18" t="s">
+      <c r="G18" t="s">
+        <v>418</v>
+      </c>
+      <c r="I18" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -2587,7 +2651,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -2601,7 +2665,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>54</v>
       </c>
@@ -2615,7 +2679,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>57</v>
       </c>
@@ -2629,7 +2693,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>59</v>
       </c>
@@ -2643,7 +2707,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>61</v>
       </c>
@@ -2657,7 +2721,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>63</v>
       </c>
@@ -2671,7 +2735,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>65</v>
       </c>
@@ -2685,7 +2749,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>67</v>
       </c>
@@ -2699,7 +2763,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>69</v>
       </c>
@@ -2713,7 +2777,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>71</v>
       </c>
@@ -2727,7 +2791,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>73</v>
       </c>
@@ -2741,7 +2805,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>75</v>
       </c>
@@ -2755,7 +2819,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>77</v>
       </c>
@@ -2769,7 +2833,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>79</v>
       </c>
@@ -2783,7 +2847,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>81</v>
       </c>
@@ -2797,7 +2861,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>83</v>
       </c>
@@ -2811,7 +2875,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>85</v>
       </c>
@@ -2825,7 +2889,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>87</v>
       </c>
@@ -2839,7 +2903,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>89</v>
       </c>
@@ -2853,7 +2917,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>91</v>
       </c>
@@ -2867,7 +2931,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>93</v>
       </c>
@@ -2881,7 +2945,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -2900,14 +2964,14 @@
       <c r="F41">
         <v>0</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>0</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="I41" s="1" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>47</v>
       </c>
@@ -2926,14 +2990,14 @@
       <c r="F42">
         <v>0</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>0</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="I42" s="1" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -2952,11 +3016,14 @@
       <c r="F43">
         <v>30</v>
       </c>
-      <c r="H43" t="s">
+      <c r="G43" t="s">
+        <v>418</v>
+      </c>
+      <c r="I43" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>410</v>
       </c>
@@ -2975,11 +3042,14 @@
       <c r="F44">
         <v>225</v>
       </c>
-      <c r="H44" t="s">
+      <c r="G44" t="s">
+        <v>418</v>
+      </c>
+      <c r="I44" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>52</v>
       </c>
@@ -2998,11 +3068,14 @@
       <c r="F45">
         <v>225</v>
       </c>
-      <c r="H45" t="s">
+      <c r="G45" t="s">
+        <v>418</v>
+      </c>
+      <c r="I45" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>95</v>
       </c>
@@ -3021,14 +3094,17 @@
       <c r="F46">
         <v>50</v>
       </c>
-      <c r="H46" t="s">
+      <c r="G46" t="s">
+        <v>418</v>
+      </c>
+      <c r="I46" t="s">
         <v>415</v>
       </c>
-      <c r="I46" t="s">
+      <c r="J46" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>98</v>
       </c>
@@ -3047,14 +3123,17 @@
       <c r="F47">
         <v>300</v>
       </c>
-      <c r="H47" t="s">
+      <c r="G47" t="s">
+        <v>418</v>
+      </c>
+      <c r="I47" t="s">
         <v>415</v>
       </c>
-      <c r="I47" t="s">
+      <c r="J47" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>101</v>
       </c>
@@ -3073,14 +3152,17 @@
       <c r="F48">
         <v>50</v>
       </c>
-      <c r="H48" t="s">
+      <c r="G48" t="s">
+        <v>418</v>
+      </c>
+      <c r="I48" t="s">
         <v>415</v>
       </c>
-      <c r="I48" t="s">
+      <c r="J48" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>104</v>
       </c>
@@ -3099,14 +3181,17 @@
       <c r="F49">
         <v>250</v>
       </c>
-      <c r="H49" t="s">
+      <c r="G49" t="s">
+        <v>418</v>
+      </c>
+      <c r="I49" t="s">
         <v>415</v>
       </c>
-      <c r="I49" t="s">
+      <c r="J49" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>107</v>
       </c>
@@ -3120,7 +3205,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>110</v>
       </c>
@@ -3134,7 +3219,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>112</v>
       </c>
@@ -3148,7 +3233,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>114</v>
       </c>
@@ -3162,7 +3247,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>116</v>
       </c>
@@ -3176,7 +3261,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>118</v>
       </c>
@@ -3195,14 +3280,17 @@
       <c r="F55">
         <v>20</v>
       </c>
-      <c r="H55" t="s">
+      <c r="G55" t="s">
+        <v>418</v>
+      </c>
+      <c r="I55" t="s">
         <v>415</v>
       </c>
-      <c r="I55" t="s">
+      <c r="J55" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>121</v>
       </c>
@@ -3215,11 +3303,11 @@
       <c r="D56" t="s">
         <v>389</v>
       </c>
-      <c r="G56">
+      <c r="H56">
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>124</v>
       </c>
@@ -3232,11 +3320,11 @@
       <c r="D57" t="s">
         <v>389</v>
       </c>
-      <c r="G57">
+      <c r="H57">
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>126</v>
       </c>
@@ -3249,11 +3337,11 @@
       <c r="D58" t="s">
         <v>389</v>
       </c>
-      <c r="G58">
+      <c r="H58">
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>131</v>
       </c>
@@ -3272,11 +3360,14 @@
       <c r="F59">
         <v>505</v>
       </c>
-      <c r="H59" t="s">
+      <c r="G59" t="s">
+        <v>418</v>
+      </c>
+      <c r="I59" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>128</v>
       </c>
@@ -3292,8 +3383,11 @@
       <c r="F60">
         <v>75</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G60" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>134</v>
       </c>
@@ -3307,7 +3401,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>137</v>
       </c>
@@ -3321,7 +3415,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>139</v>
       </c>
@@ -3335,7 +3429,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>141</v>
       </c>
@@ -3573,7 +3667,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>175</v>
       </c>
@@ -3587,7 +3681,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>178</v>
       </c>
@@ -3601,7 +3695,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>180</v>
       </c>
@@ -3615,7 +3709,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>182</v>
       </c>
@@ -3629,7 +3723,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>184</v>
       </c>
@@ -3643,7 +3737,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>186</v>
       </c>
@@ -3657,7 +3751,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>188</v>
       </c>
@@ -3671,7 +3765,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>190</v>
       </c>
@@ -3685,7 +3779,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>192</v>
       </c>
@@ -3699,7 +3793,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>195</v>
       </c>
@@ -3713,7 +3807,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>197</v>
       </c>
@@ -3727,7 +3821,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>199</v>
       </c>
@@ -3741,7 +3835,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>201</v>
       </c>
@@ -3755,7 +3849,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>203</v>
       </c>
@@ -3769,7 +3863,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>205</v>
       </c>
@@ -3785,14 +3879,14 @@
       <c r="E95" t="s">
         <v>387</v>
       </c>
-      <c r="G95">
+      <c r="H95">
         <v>75</v>
       </c>
-      <c r="H95" t="s">
+      <c r="I95" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>208</v>
       </c>
@@ -3808,14 +3902,14 @@
       <c r="E96" t="s">
         <v>387</v>
       </c>
-      <c r="G96">
-        <v>30</v>
-      </c>
-      <c r="H96" t="s">
+      <c r="H96">
+        <v>30</v>
+      </c>
+      <c r="I96" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>210</v>
       </c>
@@ -3831,14 +3925,14 @@
       <c r="E97" t="s">
         <v>387</v>
       </c>
-      <c r="G97">
-        <v>30</v>
-      </c>
-      <c r="H97" t="s">
+      <c r="H97">
+        <v>30</v>
+      </c>
+      <c r="I97" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>212</v>
       </c>
@@ -3854,14 +3948,14 @@
       <c r="E98" t="s">
         <v>387</v>
       </c>
-      <c r="G98">
-        <v>30</v>
-      </c>
-      <c r="H98" t="s">
+      <c r="H98">
+        <v>30</v>
+      </c>
+      <c r="I98" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>214</v>
       </c>
@@ -3877,14 +3971,14 @@
       <c r="E99" t="s">
         <v>387</v>
       </c>
-      <c r="G99">
-        <v>30</v>
-      </c>
-      <c r="H99" t="s">
+      <c r="H99">
+        <v>30</v>
+      </c>
+      <c r="I99" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>216</v>
       </c>
@@ -3900,14 +3994,14 @@
       <c r="E100" t="s">
         <v>387</v>
       </c>
-      <c r="G100">
-        <v>30</v>
-      </c>
-      <c r="H100" t="s">
+      <c r="H100">
+        <v>30</v>
+      </c>
+      <c r="I100" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>218</v>
       </c>
@@ -3923,14 +4017,14 @@
       <c r="E101" t="s">
         <v>387</v>
       </c>
-      <c r="G101">
-        <v>30</v>
-      </c>
-      <c r="H101" t="s">
+      <c r="H101">
+        <v>30</v>
+      </c>
+      <c r="I101" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>220</v>
       </c>
@@ -3946,14 +4040,14 @@
       <c r="E102" t="s">
         <v>387</v>
       </c>
-      <c r="G102">
-        <v>30</v>
-      </c>
-      <c r="H102" t="s">
+      <c r="H102">
+        <v>30</v>
+      </c>
+      <c r="I102" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>222</v>
       </c>
@@ -3969,14 +4063,14 @@
       <c r="E103" t="s">
         <v>387</v>
       </c>
-      <c r="G103">
+      <c r="H103">
         <v>55</v>
       </c>
-      <c r="H103" t="s">
+      <c r="I103" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>224</v>
       </c>
@@ -3992,14 +4086,14 @@
       <c r="E104" t="s">
         <v>387</v>
       </c>
-      <c r="G104">
-        <v>30</v>
-      </c>
-      <c r="H104" t="s">
+      <c r="H104">
+        <v>30</v>
+      </c>
+      <c r="I104" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>226</v>
       </c>
@@ -4015,14 +4109,14 @@
       <c r="E105" t="s">
         <v>387</v>
       </c>
-      <c r="G105">
+      <c r="H105">
         <v>55</v>
       </c>
-      <c r="H105" t="s">
+      <c r="I105" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>228</v>
       </c>
@@ -4038,14 +4132,14 @@
       <c r="E106" t="s">
         <v>387</v>
       </c>
-      <c r="G106">
-        <v>30</v>
-      </c>
-      <c r="H106" t="s">
+      <c r="H106">
+        <v>30</v>
+      </c>
+      <c r="I106" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>230</v>
       </c>
@@ -4061,14 +4155,14 @@
       <c r="E107" t="s">
         <v>387</v>
       </c>
-      <c r="G107">
-        <v>30</v>
-      </c>
-      <c r="H107" t="s">
+      <c r="H107">
+        <v>30</v>
+      </c>
+      <c r="I107" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>232</v>
       </c>
@@ -4084,14 +4178,14 @@
       <c r="E108" t="s">
         <v>387</v>
       </c>
-      <c r="G108">
-        <v>30</v>
-      </c>
-      <c r="H108" t="s">
+      <c r="H108">
+        <v>30</v>
+      </c>
+      <c r="I108" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>234</v>
       </c>
@@ -4107,14 +4201,14 @@
       <c r="E109" t="s">
         <v>387</v>
       </c>
-      <c r="G109">
-        <v>30</v>
-      </c>
-      <c r="H109" t="s">
+      <c r="H109">
+        <v>30</v>
+      </c>
+      <c r="I109" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>236</v>
       </c>
@@ -4130,14 +4224,14 @@
       <c r="E110" t="s">
         <v>387</v>
       </c>
-      <c r="G110">
-        <v>30</v>
-      </c>
-      <c r="H110" t="s">
+      <c r="H110">
+        <v>30</v>
+      </c>
+      <c r="I110" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>238</v>
       </c>
@@ -4153,14 +4247,14 @@
       <c r="E111" t="s">
         <v>387</v>
       </c>
-      <c r="G111">
-        <v>30</v>
-      </c>
-      <c r="H111" t="s">
+      <c r="H111">
+        <v>30</v>
+      </c>
+      <c r="I111" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>240</v>
       </c>
@@ -4176,14 +4270,14 @@
       <c r="E112" t="s">
         <v>387</v>
       </c>
-      <c r="G112">
-        <v>30</v>
-      </c>
-      <c r="H112" t="s">
+      <c r="H112">
+        <v>30</v>
+      </c>
+      <c r="I112" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>242</v>
       </c>
@@ -4199,14 +4293,14 @@
       <c r="E113" t="s">
         <v>387</v>
       </c>
-      <c r="G113">
+      <c r="H113">
         <v>75</v>
       </c>
-      <c r="H113" t="s">
+      <c r="I113" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>244</v>
       </c>
@@ -4222,14 +4316,14 @@
       <c r="E114" t="s">
         <v>387</v>
       </c>
-      <c r="G114">
+      <c r="H114">
         <v>75</v>
       </c>
-      <c r="H114" t="s">
+      <c r="I114" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>246</v>
       </c>
@@ -4245,14 +4339,14 @@
       <c r="E115" t="s">
         <v>387</v>
       </c>
-      <c r="G115">
-        <v>30</v>
-      </c>
-      <c r="H115" t="s">
+      <c r="H115">
+        <v>30</v>
+      </c>
+      <c r="I115" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>248</v>
       </c>
@@ -4268,14 +4362,14 @@
       <c r="E116" t="s">
         <v>387</v>
       </c>
-      <c r="G116">
-        <v>30</v>
-      </c>
-      <c r="H116" t="s">
+      <c r="H116">
+        <v>30</v>
+      </c>
+      <c r="I116" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>250</v>
       </c>
@@ -4291,14 +4385,14 @@
       <c r="E117" t="s">
         <v>387</v>
       </c>
-      <c r="G117">
-        <v>30</v>
-      </c>
-      <c r="H117" t="s">
+      <c r="H117">
+        <v>30</v>
+      </c>
+      <c r="I117" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>252</v>
       </c>
@@ -4314,14 +4408,14 @@
       <c r="E118" t="s">
         <v>387</v>
       </c>
-      <c r="G118">
-        <v>30</v>
-      </c>
-      <c r="H118" t="s">
+      <c r="H118">
+        <v>30</v>
+      </c>
+      <c r="I118" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>254</v>
       </c>
@@ -4337,14 +4431,14 @@
       <c r="E119" t="s">
         <v>387</v>
       </c>
-      <c r="G119">
-        <v>30</v>
-      </c>
-      <c r="H119" t="s">
+      <c r="H119">
+        <v>30</v>
+      </c>
+      <c r="I119" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>256</v>
       </c>
@@ -4360,14 +4454,14 @@
       <c r="E120" t="s">
         <v>387</v>
       </c>
-      <c r="G120">
+      <c r="H120">
         <v>55</v>
       </c>
-      <c r="H120" t="s">
+      <c r="I120" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>258</v>
       </c>
@@ -4383,14 +4477,14 @@
       <c r="E121" t="s">
         <v>387</v>
       </c>
-      <c r="G121">
-        <v>30</v>
-      </c>
-      <c r="H121" t="s">
+      <c r="H121">
+        <v>30</v>
+      </c>
+      <c r="I121" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>260</v>
       </c>
@@ -4406,14 +4500,14 @@
       <c r="E122" t="s">
         <v>387</v>
       </c>
-      <c r="G122">
+      <c r="H122">
         <v>55</v>
       </c>
-      <c r="H122" t="s">
+      <c r="I122" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>262</v>
       </c>
@@ -4429,14 +4523,14 @@
       <c r="E123" t="s">
         <v>387</v>
       </c>
-      <c r="G123">
-        <v>30</v>
-      </c>
-      <c r="H123" t="s">
+      <c r="H123">
+        <v>30</v>
+      </c>
+      <c r="I123" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>264</v>
       </c>
@@ -4452,14 +4546,14 @@
       <c r="E124" t="s">
         <v>387</v>
       </c>
-      <c r="G124">
-        <v>30</v>
-      </c>
-      <c r="H124" t="s">
+      <c r="H124">
+        <v>30</v>
+      </c>
+      <c r="I124" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>266</v>
       </c>
@@ -4475,14 +4569,14 @@
       <c r="E125" t="s">
         <v>387</v>
       </c>
-      <c r="G125">
-        <v>30</v>
-      </c>
-      <c r="H125" t="s">
+      <c r="H125">
+        <v>30</v>
+      </c>
+      <c r="I125" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>268</v>
       </c>
@@ -4498,14 +4592,14 @@
       <c r="E126" t="s">
         <v>387</v>
       </c>
-      <c r="G126">
-        <v>30</v>
-      </c>
-      <c r="H126" t="s">
+      <c r="H126">
+        <v>30</v>
+      </c>
+      <c r="I126" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>270</v>
       </c>
@@ -4521,14 +4615,14 @@
       <c r="E127" t="s">
         <v>387</v>
       </c>
-      <c r="G127">
-        <v>30</v>
-      </c>
-      <c r="H127" t="s">
+      <c r="H127">
+        <v>30</v>
+      </c>
+      <c r="I127" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>272</v>
       </c>
@@ -4544,14 +4638,14 @@
       <c r="E128" t="s">
         <v>387</v>
       </c>
-      <c r="G128">
-        <v>30</v>
-      </c>
-      <c r="H128" t="s">
+      <c r="H128">
+        <v>30</v>
+      </c>
+      <c r="I128" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>274</v>
       </c>
@@ -4567,14 +4661,14 @@
       <c r="E129" t="s">
         <v>387</v>
       </c>
-      <c r="G129">
-        <v>30</v>
-      </c>
-      <c r="H129" t="s">
+      <c r="H129">
+        <v>30</v>
+      </c>
+      <c r="I129" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>276</v>
       </c>
@@ -4590,14 +4684,14 @@
       <c r="E130" t="s">
         <v>387</v>
       </c>
-      <c r="G130">
+      <c r="H130">
         <v>75</v>
       </c>
-      <c r="H130" t="s">
+      <c r="I130" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>278</v>
       </c>
@@ -4613,14 +4707,14 @@
       <c r="E131" t="s">
         <v>387</v>
       </c>
-      <c r="G131">
+      <c r="H131">
         <v>75</v>
       </c>
-      <c r="H131" t="s">
+      <c r="I131" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>280</v>
       </c>
@@ -4636,14 +4730,14 @@
       <c r="E132" t="s">
         <v>387</v>
       </c>
-      <c r="G132">
-        <v>30</v>
-      </c>
-      <c r="H132" t="s">
+      <c r="H132">
+        <v>30</v>
+      </c>
+      <c r="I132" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>282</v>
       </c>
@@ -4659,14 +4753,14 @@
       <c r="E133" t="s">
         <v>387</v>
       </c>
-      <c r="G133">
-        <v>30</v>
-      </c>
-      <c r="H133" t="s">
+      <c r="H133">
+        <v>30</v>
+      </c>
+      <c r="I133" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>284</v>
       </c>
@@ -4682,14 +4776,14 @@
       <c r="E134" t="s">
         <v>387</v>
       </c>
-      <c r="G134">
-        <v>30</v>
-      </c>
-      <c r="H134" t="s">
+      <c r="H134">
+        <v>30</v>
+      </c>
+      <c r="I134" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>286</v>
       </c>
@@ -4705,14 +4799,14 @@
       <c r="E135" t="s">
         <v>387</v>
       </c>
-      <c r="G135">
-        <v>30</v>
-      </c>
-      <c r="H135" t="s">
+      <c r="H135">
+        <v>30</v>
+      </c>
+      <c r="I135" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>288</v>
       </c>
@@ -4728,14 +4822,14 @@
       <c r="E136" t="s">
         <v>387</v>
       </c>
-      <c r="G136">
-        <v>30</v>
-      </c>
-      <c r="H136" t="s">
+      <c r="H136">
+        <v>30</v>
+      </c>
+      <c r="I136" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>290</v>
       </c>
@@ -4751,14 +4845,14 @@
       <c r="E137" t="s">
         <v>387</v>
       </c>
-      <c r="G137">
+      <c r="H137">
         <v>55</v>
       </c>
-      <c r="H137" t="s">
+      <c r="I137" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>292</v>
       </c>
@@ -4774,14 +4868,14 @@
       <c r="E138" t="s">
         <v>387</v>
       </c>
-      <c r="G138">
-        <v>30</v>
-      </c>
-      <c r="H138" t="s">
+      <c r="H138">
+        <v>30</v>
+      </c>
+      <c r="I138" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>294</v>
       </c>
@@ -4797,14 +4891,14 @@
       <c r="E139" t="s">
         <v>387</v>
       </c>
-      <c r="G139">
+      <c r="H139">
         <v>55</v>
       </c>
-      <c r="H139" t="s">
+      <c r="I139" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>296</v>
       </c>
@@ -4820,14 +4914,14 @@
       <c r="E140" t="s">
         <v>387</v>
       </c>
-      <c r="G140">
-        <v>30</v>
-      </c>
-      <c r="H140" t="s">
+      <c r="H140">
+        <v>30</v>
+      </c>
+      <c r="I140" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>298</v>
       </c>
@@ -4843,14 +4937,14 @@
       <c r="E141" t="s">
         <v>387</v>
       </c>
-      <c r="G141">
-        <v>30</v>
-      </c>
-      <c r="H141" t="s">
+      <c r="H141">
+        <v>30</v>
+      </c>
+      <c r="I141" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>300</v>
       </c>
@@ -4866,14 +4960,14 @@
       <c r="E142" t="s">
         <v>387</v>
       </c>
-      <c r="G142">
-        <v>30</v>
-      </c>
-      <c r="H142" t="s">
+      <c r="H142">
+        <v>30</v>
+      </c>
+      <c r="I142" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>302</v>
       </c>
@@ -4889,14 +4983,14 @@
       <c r="E143" t="s">
         <v>387</v>
       </c>
-      <c r="G143">
-        <v>30</v>
-      </c>
-      <c r="H143" t="s">
+      <c r="H143">
+        <v>30</v>
+      </c>
+      <c r="I143" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>304</v>
       </c>
@@ -4912,14 +5006,14 @@
       <c r="E144" t="s">
         <v>387</v>
       </c>
-      <c r="G144">
-        <v>30</v>
-      </c>
-      <c r="H144" t="s">
+      <c r="H144">
+        <v>30</v>
+      </c>
+      <c r="I144" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>306</v>
       </c>
@@ -4935,14 +5029,14 @@
       <c r="E145" t="s">
         <v>387</v>
       </c>
-      <c r="G145">
-        <v>30</v>
-      </c>
-      <c r="H145" t="s">
+      <c r="H145">
+        <v>30</v>
+      </c>
+      <c r="I145" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>308</v>
       </c>
@@ -4958,14 +5052,14 @@
       <c r="E146" t="s">
         <v>387</v>
       </c>
-      <c r="G146">
-        <v>30</v>
-      </c>
-      <c r="H146" t="s">
+      <c r="H146">
+        <v>30</v>
+      </c>
+      <c r="I146" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>310</v>
       </c>
@@ -4981,14 +5075,14 @@
       <c r="E147" t="s">
         <v>387</v>
       </c>
-      <c r="G147">
+      <c r="H147">
         <v>75</v>
       </c>
-      <c r="H147" t="s">
+      <c r="I147" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>312</v>
       </c>
@@ -5004,14 +5098,14 @@
       <c r="E148" t="s">
         <v>387</v>
       </c>
-      <c r="G148">
+      <c r="H148">
         <v>75</v>
       </c>
-      <c r="H148" t="s">
+      <c r="I148" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>314</v>
       </c>
@@ -5027,14 +5121,14 @@
       <c r="E149" t="s">
         <v>387</v>
       </c>
-      <c r="G149">
-        <v>30</v>
-      </c>
-      <c r="H149" t="s">
+      <c r="H149">
+        <v>30</v>
+      </c>
+      <c r="I149" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>316</v>
       </c>
@@ -5050,14 +5144,14 @@
       <c r="E150" t="s">
         <v>387</v>
       </c>
-      <c r="G150">
-        <v>30</v>
-      </c>
-      <c r="H150" t="s">
+      <c r="H150">
+        <v>30</v>
+      </c>
+      <c r="I150" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>318</v>
       </c>
@@ -5073,14 +5167,14 @@
       <c r="E151" t="s">
         <v>387</v>
       </c>
-      <c r="G151">
-        <v>30</v>
-      </c>
-      <c r="H151" t="s">
+      <c r="H151">
+        <v>30</v>
+      </c>
+      <c r="I151" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>320</v>
       </c>
@@ -5096,14 +5190,14 @@
       <c r="E152" t="s">
         <v>387</v>
       </c>
-      <c r="G152">
-        <v>30</v>
-      </c>
-      <c r="H152" t="s">
+      <c r="H152">
+        <v>30</v>
+      </c>
+      <c r="I152" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>322</v>
       </c>
@@ -5119,14 +5213,14 @@
       <c r="E153" t="s">
         <v>387</v>
       </c>
-      <c r="G153">
-        <v>30</v>
-      </c>
-      <c r="H153" t="s">
+      <c r="H153">
+        <v>30</v>
+      </c>
+      <c r="I153" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>324</v>
       </c>
@@ -5142,14 +5236,14 @@
       <c r="E154" t="s">
         <v>387</v>
       </c>
-      <c r="G154">
+      <c r="H154">
         <v>55</v>
       </c>
-      <c r="H154" t="s">
+      <c r="I154" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>326</v>
       </c>
@@ -5165,14 +5259,14 @@
       <c r="E155" t="s">
         <v>387</v>
       </c>
-      <c r="G155">
-        <v>30</v>
-      </c>
-      <c r="H155" t="s">
+      <c r="H155">
+        <v>30</v>
+      </c>
+      <c r="I155" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>328</v>
       </c>
@@ -5188,14 +5282,14 @@
       <c r="E156" t="s">
         <v>387</v>
       </c>
-      <c r="G156">
+      <c r="H156">
         <v>55</v>
       </c>
-      <c r="H156" t="s">
+      <c r="I156" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>330</v>
       </c>
@@ -5211,14 +5305,14 @@
       <c r="E157" t="s">
         <v>387</v>
       </c>
-      <c r="G157">
-        <v>30</v>
-      </c>
-      <c r="H157" t="s">
+      <c r="H157">
+        <v>30</v>
+      </c>
+      <c r="I157" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>332</v>
       </c>
@@ -5234,14 +5328,14 @@
       <c r="E158" t="s">
         <v>387</v>
       </c>
-      <c r="G158">
-        <v>30</v>
-      </c>
-      <c r="H158" t="s">
+      <c r="H158">
+        <v>30</v>
+      </c>
+      <c r="I158" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>334</v>
       </c>
@@ -5257,14 +5351,14 @@
       <c r="E159" t="s">
         <v>387</v>
       </c>
-      <c r="G159">
-        <v>30</v>
-      </c>
-      <c r="H159" t="s">
+      <c r="H159">
+        <v>30</v>
+      </c>
+      <c r="I159" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>336</v>
       </c>
@@ -5280,14 +5374,14 @@
       <c r="E160" t="s">
         <v>387</v>
       </c>
-      <c r="G160">
-        <v>30</v>
-      </c>
-      <c r="H160" t="s">
+      <c r="H160">
+        <v>30</v>
+      </c>
+      <c r="I160" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>338</v>
       </c>
@@ -5303,14 +5397,14 @@
       <c r="E161" t="s">
         <v>387</v>
       </c>
-      <c r="G161">
-        <v>30</v>
-      </c>
-      <c r="H161" t="s">
+      <c r="H161">
+        <v>30</v>
+      </c>
+      <c r="I161" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>340</v>
       </c>
@@ -5326,14 +5420,14 @@
       <c r="E162" t="s">
         <v>387</v>
       </c>
-      <c r="G162">
-        <v>30</v>
-      </c>
-      <c r="H162" t="s">
+      <c r="H162">
+        <v>30</v>
+      </c>
+      <c r="I162" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>342</v>
       </c>
@@ -5349,14 +5443,14 @@
       <c r="E163" t="s">
         <v>387</v>
       </c>
-      <c r="G163">
-        <v>30</v>
-      </c>
-      <c r="H163" t="s">
+      <c r="H163">
+        <v>30</v>
+      </c>
+      <c r="I163" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>344</v>
       </c>
@@ -5372,14 +5466,14 @@
       <c r="E164" t="s">
         <v>387</v>
       </c>
-      <c r="G164">
+      <c r="H164">
         <v>75</v>
       </c>
-      <c r="H164" t="s">
+      <c r="I164" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>346</v>
       </c>
@@ -5395,14 +5489,14 @@
       <c r="E165" t="s">
         <v>387</v>
       </c>
-      <c r="G165">
+      <c r="H165">
         <v>75</v>
       </c>
-      <c r="H165" t="s">
+      <c r="I165" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>348</v>
       </c>
@@ -5418,14 +5512,14 @@
       <c r="E166" t="s">
         <v>387</v>
       </c>
-      <c r="G166">
-        <v>30</v>
-      </c>
-      <c r="H166" t="s">
+      <c r="H166">
+        <v>30</v>
+      </c>
+      <c r="I166" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>350</v>
       </c>
@@ -5441,14 +5535,14 @@
       <c r="E167" t="s">
         <v>387</v>
       </c>
-      <c r="G167">
-        <v>30</v>
-      </c>
-      <c r="H167" t="s">
+      <c r="H167">
+        <v>30</v>
+      </c>
+      <c r="I167" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>352</v>
       </c>
@@ -5464,14 +5558,14 @@
       <c r="E168" t="s">
         <v>387</v>
       </c>
-      <c r="G168">
-        <v>30</v>
-      </c>
-      <c r="H168" t="s">
+      <c r="H168">
+        <v>30</v>
+      </c>
+      <c r="I168" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>354</v>
       </c>
@@ -5487,14 +5581,14 @@
       <c r="E169" t="s">
         <v>387</v>
       </c>
-      <c r="G169">
-        <v>30</v>
-      </c>
-      <c r="H169" t="s">
+      <c r="H169">
+        <v>30</v>
+      </c>
+      <c r="I169" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>356</v>
       </c>
@@ -5510,14 +5604,14 @@
       <c r="E170" t="s">
         <v>387</v>
       </c>
-      <c r="G170">
-        <v>30</v>
-      </c>
-      <c r="H170" t="s">
+      <c r="H170">
+        <v>30</v>
+      </c>
+      <c r="I170" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>358</v>
       </c>
@@ -5533,14 +5627,14 @@
       <c r="E171" t="s">
         <v>387</v>
       </c>
-      <c r="G171">
+      <c r="H171">
         <v>55</v>
       </c>
-      <c r="H171" t="s">
+      <c r="I171" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>360</v>
       </c>
@@ -5556,14 +5650,14 @@
       <c r="E172" t="s">
         <v>387</v>
       </c>
-      <c r="G172">
-        <v>30</v>
-      </c>
-      <c r="H172" t="s">
+      <c r="H172">
+        <v>30</v>
+      </c>
+      <c r="I172" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>362</v>
       </c>
@@ -5579,14 +5673,14 @@
       <c r="E173" t="s">
         <v>387</v>
       </c>
-      <c r="G173">
+      <c r="H173">
         <v>55</v>
       </c>
-      <c r="H173" t="s">
+      <c r="I173" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>364</v>
       </c>
@@ -5602,14 +5696,14 @@
       <c r="E174" t="s">
         <v>387</v>
       </c>
-      <c r="G174">
-        <v>30</v>
-      </c>
-      <c r="H174" t="s">
+      <c r="H174">
+        <v>30</v>
+      </c>
+      <c r="I174" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>366</v>
       </c>
@@ -5625,14 +5719,14 @@
       <c r="E175" t="s">
         <v>387</v>
       </c>
-      <c r="G175">
-        <v>30</v>
-      </c>
-      <c r="H175" t="s">
+      <c r="H175">
+        <v>30</v>
+      </c>
+      <c r="I175" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>368</v>
       </c>
@@ -5648,14 +5742,14 @@
       <c r="E176" t="s">
         <v>387</v>
       </c>
-      <c r="G176">
-        <v>30</v>
-      </c>
-      <c r="H176" t="s">
+      <c r="H176">
+        <v>30</v>
+      </c>
+      <c r="I176" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>370</v>
       </c>
@@ -5671,14 +5765,14 @@
       <c r="E177" t="s">
         <v>387</v>
       </c>
-      <c r="G177">
-        <v>30</v>
-      </c>
-      <c r="H177" t="s">
+      <c r="H177">
+        <v>30</v>
+      </c>
+      <c r="I177" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>372</v>
       </c>
@@ -5694,14 +5788,14 @@
       <c r="E178" t="s">
         <v>387</v>
       </c>
-      <c r="G178">
-        <v>30</v>
-      </c>
-      <c r="H178" t="s">
+      <c r="H178">
+        <v>30</v>
+      </c>
+      <c r="I178" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>374</v>
       </c>
@@ -5717,14 +5811,14 @@
       <c r="E179" t="s">
         <v>387</v>
       </c>
-      <c r="G179">
-        <v>30</v>
-      </c>
-      <c r="H179" t="s">
+      <c r="H179">
+        <v>30</v>
+      </c>
+      <c r="I179" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>376</v>
       </c>
@@ -5740,14 +5834,14 @@
       <c r="E180" t="s">
         <v>387</v>
       </c>
-      <c r="G180">
-        <v>30</v>
-      </c>
-      <c r="H180" t="s">
+      <c r="H180">
+        <v>30</v>
+      </c>
+      <c r="I180" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>378</v>
       </c>
@@ -5763,14 +5857,14 @@
       <c r="E181" t="s">
         <v>387</v>
       </c>
-      <c r="G181">
+      <c r="H181">
         <v>75</v>
       </c>
-      <c r="H181" t="s">
+      <c r="I181" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>380</v>
       </c>
@@ -5789,14 +5883,14 @@
       <c r="F182">
         <v>0</v>
       </c>
-      <c r="G182">
+      <c r="H182">
         <v>0</v>
       </c>
-      <c r="H182" t="s">
+      <c r="I182" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>383</v>
       </c>
@@ -5815,16 +5909,16 @@
       <c r="F183">
         <v>0</v>
       </c>
-      <c r="G183">
+      <c r="H183">
         <v>0</v>
       </c>
-      <c r="H183" t="s">
+      <c r="I183" t="s">
         <v>404</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I183" xr:uid="{BF9669FC-7E78-4001-A010-806875128FA3}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A95:I181">
+  <autoFilter ref="A1:J183" xr:uid="{BF9669FC-7E78-4001-A010-806875128FA3}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A95:J181">
       <sortCondition ref="B1:B183"/>
     </sortState>
   </autoFilter>
